--- a/ozone/tests/examples/art7_submissions.xlsx
+++ b/ozone/tests/examples/art7_submissions.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\edw\projects\ozone\src\ozone\tests\examples\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B057DDB-E784-43B8-8FF5-EA1B807538A6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Overall" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Import" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="ImportNew" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Export" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Produce" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Destroy" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="NonPartyTrade" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="NonPartyTradeNew" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Overall" sheetId="1" r:id="rId1"/>
+    <sheet name="Import" sheetId="2" r:id="rId2"/>
+    <sheet name="ImportNew" sheetId="3" r:id="rId3"/>
+    <sheet name="Export" sheetId="4" r:id="rId4"/>
+    <sheet name="Produce" sheetId="5" r:id="rId5"/>
+    <sheet name="Destroy" sheetId="6" r:id="rId6"/>
+    <sheet name="NonPartyTrade" sheetId="7" r:id="rId7"/>
+    <sheet name="NonPartyTradeNew" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -27,462 +32,448 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="141">
-  <si>
-    <t xml:space="preserve">CntryID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PeriodID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DataID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imported</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exported</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Produced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Destroyed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NonPartyTrade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DateReported</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AI_ComplRep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AII_ComplRep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BI_ComplRep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BII_ComplRep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BIII_ComplRep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CI_ComplRep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CII_ComplRep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIII_ComplRep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EI_ComplRep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F_ComplRep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checked_Blanks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blanks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Confirm_Blanks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UserCreate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UserUpdate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DateCreate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DateUpdate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SubmissionType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emitted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HFCDateReported</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dbo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Revised because.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">000000000111B1A1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SubstID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ImpNew</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ImpRecov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ImpFeedstock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ImpEssenUse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ImpLabUse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ImpQuarAppl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ImpProcAgent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ImpPolyol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNPESQL\manassel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blah one</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00000000011C1B11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blah two</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00000000011C1B12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blah three</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00000000011C1B13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blah four</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00000000011C1B14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blah five</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00000000011C1B15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00000000011C1B16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OrgCntryID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TPA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remark one</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0000000004A89173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remark two</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0000000004A89174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remark three</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0000000004A89175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TPB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TPC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remark four</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0000000004A83750</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remark five</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0000000004A83751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0000000004A89179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DestCntryID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ExpNew</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ExpRecov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ExpFeedstock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ExpEssenUse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ExpQuarAppl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ExpProcAgent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ExpPolyol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRV2\bzz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00000000011C1110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00000000011C1111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00000000011C1112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">foo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00000000011C1113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">baz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00000000011C1114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00000000011C111D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00000000011C111E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00000000011C111F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00000000011C1120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00000000011C1121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00000000011C1122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00000000011C1123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00000000011C1124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00000000011C1125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ProdAllNew</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ProdFeedstock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ProdEssenUse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ProdLabUse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ProdArt5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ProdQuarAppl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ProdProcAgent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CaptureDest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0000000001F1111F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0000000001F11110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0000000001F11111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0000000001F11112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">some remark about CFC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00000000011A11E1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00000000011A11E2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00000000011A11E3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRV2\baz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00000000011A11E4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Some remark about Halon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00000000011A11E5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00000000011A11E6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SrcDestCntryID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Import</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Export</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00000000011B1913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00000000011B1914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00000000011B1915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NPTImpNew</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NPTImpRecov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NPTExpNew</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NPTExpRecov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">000000000111EE17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">000000000111EE18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">000000000111EE19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fib</t>
-  </si>
-  <si>
-    <t xml:space="preserve">000000000111EE1D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tpm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">000000000111EE1F</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="142">
+  <si>
+    <t>CntryID</t>
+  </si>
+  <si>
+    <t>PeriodID</t>
+  </si>
+  <si>
+    <t>DataID</t>
+  </si>
+  <si>
+    <t>Imported</t>
+  </si>
+  <si>
+    <t>Exported</t>
+  </si>
+  <si>
+    <t>Produced</t>
+  </si>
+  <si>
+    <t>Destroyed</t>
+  </si>
+  <si>
+    <t>NonPartyTrade</t>
+  </si>
+  <si>
+    <t>DateReported</t>
+  </si>
+  <si>
+    <t>AI_ComplRep</t>
+  </si>
+  <si>
+    <t>AII_ComplRep</t>
+  </si>
+  <si>
+    <t>BI_ComplRep</t>
+  </si>
+  <si>
+    <t>BII_ComplRep</t>
+  </si>
+  <si>
+    <t>BIII_ComplRep</t>
+  </si>
+  <si>
+    <t>CI_ComplRep</t>
+  </si>
+  <si>
+    <t>CII_ComplRep</t>
+  </si>
+  <si>
+    <t>CIII_ComplRep</t>
+  </si>
+  <si>
+    <t>EI_ComplRep</t>
+  </si>
+  <si>
+    <t>F_ComplRep</t>
+  </si>
+  <si>
+    <t>Checked_Blanks</t>
+  </si>
+  <si>
+    <t>Blanks</t>
+  </si>
+  <si>
+    <t>Confirm_Blanks</t>
+  </si>
+  <si>
+    <t>UserCreate</t>
+  </si>
+  <si>
+    <t>UserUpdate</t>
+  </si>
+  <si>
+    <t>DateCreate</t>
+  </si>
+  <si>
+    <t>DateUpdate</t>
+  </si>
+  <si>
+    <t>Remark</t>
+  </si>
+  <si>
+    <t>SubmissionType</t>
+  </si>
+  <si>
+    <t>TS</t>
+  </si>
+  <si>
+    <t>Emitted</t>
+  </si>
+  <si>
+    <t>HFCDateReported</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>dbo</t>
+  </si>
+  <si>
+    <t>Revised because.</t>
+  </si>
+  <si>
+    <t>000000000111B1A1</t>
+  </si>
+  <si>
+    <t>SubstID</t>
+  </si>
+  <si>
+    <t>ImpNew</t>
+  </si>
+  <si>
+    <t>ImpRecov</t>
+  </si>
+  <si>
+    <t>ImpFeedstock</t>
+  </si>
+  <si>
+    <t>ImpEssenUse</t>
+  </si>
+  <si>
+    <t>ImpLabUse</t>
+  </si>
+  <si>
+    <t>ImpQuarAppl</t>
+  </si>
+  <si>
+    <t>ImpProcAgent</t>
+  </si>
+  <si>
+    <t>ImpPolyol</t>
+  </si>
+  <si>
+    <t>UNPESQL\manassel</t>
+  </si>
+  <si>
+    <t>blah one</t>
+  </si>
+  <si>
+    <t>00000000011C1B11</t>
+  </si>
+  <si>
+    <t>blah two</t>
+  </si>
+  <si>
+    <t>00000000011C1B12</t>
+  </si>
+  <si>
+    <t>blah three</t>
+  </si>
+  <si>
+    <t>00000000011C1B13</t>
+  </si>
+  <si>
+    <t>blah four</t>
+  </si>
+  <si>
+    <t>00000000011C1B14</t>
+  </si>
+  <si>
+    <t>blah five</t>
+  </si>
+  <si>
+    <t>00000000011C1B15</t>
+  </si>
+  <si>
+    <t>00000000011C1B16</t>
+  </si>
+  <si>
+    <t>OrgCntryID</t>
+  </si>
+  <si>
+    <t>TPA</t>
+  </si>
+  <si>
+    <t>remark one</t>
+  </si>
+  <si>
+    <t>0000000004A89173</t>
+  </si>
+  <si>
+    <t>remark two</t>
+  </si>
+  <si>
+    <t>0000000004A89174</t>
+  </si>
+  <si>
+    <t>remark three</t>
+  </si>
+  <si>
+    <t>0000000004A89175</t>
+  </si>
+  <si>
+    <t>TPB</t>
+  </si>
+  <si>
+    <t>TPC</t>
+  </si>
+  <si>
+    <t>UNK</t>
+  </si>
+  <si>
+    <t>remark four</t>
+  </si>
+  <si>
+    <t>0000000004A83750</t>
+  </si>
+  <si>
+    <t>remark five</t>
+  </si>
+  <si>
+    <t>0000000004A83751</t>
+  </si>
+  <si>
+    <t>0000000004A89179</t>
+  </si>
+  <si>
+    <t>DestCntryID</t>
+  </si>
+  <si>
+    <t>ExpNew</t>
+  </si>
+  <si>
+    <t>ExpRecov</t>
+  </si>
+  <si>
+    <t>ExpFeedstock</t>
+  </si>
+  <si>
+    <t>ExpEssenUse</t>
+  </si>
+  <si>
+    <t>ExpQuarAppl</t>
+  </si>
+  <si>
+    <t>ExpProcAgent</t>
+  </si>
+  <si>
+    <t>ExpPolyol</t>
+  </si>
+  <si>
+    <t>SRV2\bzz</t>
+  </si>
+  <si>
+    <t>00000000011C1110</t>
+  </si>
+  <si>
+    <t>00000000011C1111</t>
+  </si>
+  <si>
+    <t>00000000011C1112</t>
+  </si>
+  <si>
+    <t>foo</t>
+  </si>
+  <si>
+    <t>bar</t>
+  </si>
+  <si>
+    <t>00000000011C1113</t>
+  </si>
+  <si>
+    <t>baz</t>
+  </si>
+  <si>
+    <t>00000000011C1114</t>
+  </si>
+  <si>
+    <t>00000000011C111D</t>
+  </si>
+  <si>
+    <t>00000000011C111E</t>
+  </si>
+  <si>
+    <t>00000000011C111F</t>
+  </si>
+  <si>
+    <t>00000000011C1120</t>
+  </si>
+  <si>
+    <t>00000000011C1121</t>
+  </si>
+  <si>
+    <t>00000000011C1122</t>
+  </si>
+  <si>
+    <t>00000000011C1123</t>
+  </si>
+  <si>
+    <t>00000000011C1124</t>
+  </si>
+  <si>
+    <t>00000000011C1125</t>
+  </si>
+  <si>
+    <t>ProdAllNew</t>
+  </si>
+  <si>
+    <t>ProdFeedstock</t>
+  </si>
+  <si>
+    <t>ProdEssenUse</t>
+  </si>
+  <si>
+    <t>ProdLabUse</t>
+  </si>
+  <si>
+    <t>ProdArt5</t>
+  </si>
+  <si>
+    <t>ProdQuarAppl</t>
+  </si>
+  <si>
+    <t>ProdProcAgent</t>
+  </si>
+  <si>
+    <t>CaptureDest</t>
+  </si>
+  <si>
+    <t>r1</t>
+  </si>
+  <si>
+    <t>0000000001F1111F</t>
+  </si>
+  <si>
+    <t>r2</t>
+  </si>
+  <si>
+    <t>0000000001F11110</t>
+  </si>
+  <si>
+    <t>r3</t>
+  </si>
+  <si>
+    <t>0000000001F11111</t>
+  </si>
+  <si>
+    <t>r4</t>
+  </si>
+  <si>
+    <t>0000000001F11112</t>
+  </si>
+  <si>
+    <t>some remark about CFC</t>
+  </si>
+  <si>
+    <t>00000000011A11E1</t>
+  </si>
+  <si>
+    <t>00000000011A11E2</t>
+  </si>
+  <si>
+    <t>00000000011A11E3</t>
+  </si>
+  <si>
+    <t>SRV2\baz</t>
+  </si>
+  <si>
+    <t>00000000011A11E4</t>
+  </si>
+  <si>
+    <t>Some remark about Halon</t>
+  </si>
+  <si>
+    <t>00000000011A11E5</t>
+  </si>
+  <si>
+    <t>00000000011A11E6</t>
+  </si>
+  <si>
+    <t>SrcDestCntryID</t>
+  </si>
+  <si>
+    <t>Import</t>
+  </si>
+  <si>
+    <t>Export</t>
+  </si>
+  <si>
+    <t>00000000011B1913</t>
+  </si>
+  <si>
+    <t>00000000011B1914</t>
+  </si>
+  <si>
+    <t>00000000011B1915</t>
+  </si>
+  <si>
+    <t>NPTImpNew</t>
+  </si>
+  <si>
+    <t>NPTImpRecov</t>
+  </si>
+  <si>
+    <t>NPTExpNew</t>
+  </si>
+  <si>
+    <t>NPTExpRecov</t>
+  </si>
+  <si>
+    <t>000000000111EE17</t>
+  </si>
+  <si>
+    <t>000000000111EE18</t>
+  </si>
+  <si>
+    <t>000000000111EE19</t>
+  </si>
+  <si>
+    <t>fib</t>
+  </si>
+  <si>
+    <t>000000000111EE1D</t>
+  </si>
+  <si>
+    <t>tpm</t>
+  </si>
+  <si>
+    <t>000000000111EE1F</t>
+  </si>
+  <si>
+    <t>A7 Data forms</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="YYYY\-MM\-DD\ H:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -494,7 +485,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -502,78 +493,342 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA2" activeCellId="0" sqref="AA2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.65234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="31" max="31" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -668,114 +923,116 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="n">
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="E2" s="1">
         <v>1</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="F2" s="1">
         <v>1</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="G2" s="1">
         <v>1</v>
       </c>
-      <c r="H2" s="1" t="n">
+      <c r="H2" s="1">
         <v>1</v>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="I2" s="2">
         <v>40434</v>
       </c>
-      <c r="J2" s="1" t="n">
+      <c r="J2" s="1">
         <v>1</v>
       </c>
-      <c r="K2" s="1" t="n">
+      <c r="K2" s="1">
         <v>1</v>
       </c>
-      <c r="L2" s="1" t="n">
+      <c r="L2" s="1">
         <v>1</v>
       </c>
-      <c r="M2" s="1" t="n">
+      <c r="M2" s="1">
         <v>1</v>
       </c>
-      <c r="N2" s="1" t="n">
+      <c r="N2" s="1">
         <v>1</v>
       </c>
-      <c r="O2" s="1" t="n">
+      <c r="O2" s="1">
         <v>1</v>
       </c>
-      <c r="P2" s="1" t="n">
+      <c r="P2" s="1">
         <v>1</v>
       </c>
-      <c r="Q2" s="1" t="n">
+      <c r="Q2" s="1">
         <v>1</v>
       </c>
-      <c r="R2" s="1" t="n">
+      <c r="R2" s="1">
         <v>1</v>
       </c>
-      <c r="S2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="S2" s="1">
+        <v>1</v>
+      </c>
+      <c r="T2" s="1">
+        <v>1</v>
+      </c>
+      <c r="U2" s="1">
+        <v>0</v>
+      </c>
+      <c r="V2" s="1"/>
       <c r="W2" s="1" t="s">
         <v>33</v>
       </c>
       <c r="X2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Y2" s="2" t="n">
-        <v>40256.4388888889</v>
-      </c>
-      <c r="Z2" s="2" t="n">
-        <v>41386.5520833333</v>
+      <c r="Y2" s="2">
+        <v>40256.438888888901</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>41386.552083333299</v>
       </c>
       <c r="AA2" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="AB2" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="AC2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AD2" s="1" t="n">
-        <v>0</v>
+      <c r="AD2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="5">
+        <v>40543</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.65234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -831,30 +1088,30 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="1">
         <v>100</v>
       </c>
-      <c r="D2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>720.433</v>
-      </c>
-      <c r="F2" s="1" t="n">
-        <v>85.161</v>
-      </c>
-      <c r="H2" s="1" t="n">
-        <v>55.879</v>
-      </c>
-      <c r="I2" s="1" t="n">
-        <v>51.871</v>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>720.43299999999999</v>
+      </c>
+      <c r="F2" s="1">
+        <v>85.161000000000001</v>
+      </c>
+      <c r="H2" s="1">
+        <v>55.878999999999998</v>
+      </c>
+      <c r="I2" s="1">
+        <v>51.871000000000002</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>33</v>
@@ -862,11 +1119,11 @@
       <c r="N2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="O2" s="2" t="n">
-        <v>40434.5298611111</v>
-      </c>
-      <c r="P2" s="2" t="n">
-        <v>40371.8479166667</v>
+      <c r="O2" s="2">
+        <v>40434.529861111099</v>
+      </c>
+      <c r="P2" s="2">
+        <v>40371.847916666702</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>46</v>
@@ -875,29 +1132,29 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="1">
         <v>101</v>
       </c>
-      <c r="D3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1" t="n">
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
         <v>467.25</v>
       </c>
-      <c r="G3" s="1" t="n">
+      <c r="G3" s="1">
         <v>650</v>
       </c>
-      <c r="H3" s="1" t="n">
-        <v>55.018</v>
-      </c>
-      <c r="I3" s="1" t="n">
+      <c r="H3" s="1">
+        <v>55.018000000000001</v>
+      </c>
+      <c r="I3" s="1">
         <v>14.987</v>
       </c>
       <c r="M3" s="1" t="s">
@@ -906,11 +1163,11 @@
       <c r="N3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="O3" s="2" t="n">
-        <v>40434.5298611111</v>
-      </c>
-      <c r="P3" s="2" t="n">
-        <v>40371.8479166667</v>
+      <c r="O3" s="2">
+        <v>40434.529861111099</v>
+      </c>
+      <c r="P3" s="2">
+        <v>40371.847916666702</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>48</v>
@@ -919,33 +1176,33 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="1">
         <v>102</v>
       </c>
-      <c r="D4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1" t="n">
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
         <v>85.2</v>
       </c>
-      <c r="F4" s="0" t="n">
-        <v>33</v>
-      </c>
-      <c r="G4" s="0" t="n">
+      <c r="F4">
+        <v>33</v>
+      </c>
+      <c r="G4">
         <v>50</v>
       </c>
-      <c r="H4" s="1" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I4" s="1" t="n">
-        <v>2.2</v>
+      <c r="H4" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2.2000000000000002</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>33</v>
@@ -953,11 +1210,11 @@
       <c r="N4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="O4" s="2" t="n">
-        <v>40434.5298611111</v>
-      </c>
-      <c r="P4" s="2" t="n">
-        <v>40371.8479166667</v>
+      <c r="O4" s="2">
+        <v>40434.529861111099</v>
+      </c>
+      <c r="P4" s="2">
+        <v>40371.847916666702</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>50</v>
@@ -966,33 +1223,33 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="1">
         <v>104</v>
       </c>
-      <c r="D5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1" t="n">
-        <v>265.083</v>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>7.817</v>
-      </c>
-      <c r="H5" s="1" t="n">
-        <v>35.109</v>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>265.08300000000003</v>
+      </c>
+      <c r="F5" s="1">
+        <v>7.8170000000000002</v>
+      </c>
+      <c r="H5" s="1">
+        <v>35.109000000000002</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O5" s="2" t="n">
-        <v>40434.5298611111</v>
+      <c r="O5" s="2">
+        <v>40434.529861111099</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>52</v>
@@ -1001,30 +1258,30 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="0" t="n">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6">
         <v>194</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="0" t="n">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
         <v>13</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6">
         <v>10</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6">
         <v>3</v>
       </c>
-      <c r="O6" s="2" t="n">
-        <v>41305.5361111111</v>
+      <c r="O6" s="2">
+        <v>41305.536111111098</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>54</v>
@@ -1033,41 +1290,41 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="1">
         <v>369</v>
       </c>
-      <c r="D7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1" t="n">
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
         <v>60</v>
       </c>
-      <c r="F7" s="1" t="n">
+      <c r="F7" s="1">
         <v>10</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7">
         <v>20</v>
       </c>
-      <c r="H7" s="1" t="n">
+      <c r="H7" s="1">
         <v>30</v>
       </c>
-      <c r="I7" s="1" t="n">
+      <c r="I7" s="1">
         <v>20</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
-      <c r="O7" s="2" t="n">
-        <v>40434.5298611111</v>
-      </c>
-      <c r="P7" s="2" t="n">
-        <v>40371.8479166667</v>
+      <c r="O7" s="2">
+        <v>40434.529861111099</v>
+      </c>
+      <c r="P7" s="2">
+        <v>40371.847916666702</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>46</v>
@@ -1077,30 +1334,22 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.65234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1159,39 +1408,39 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="1">
         <v>100</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1" t="n">
-        <v>720.433</v>
-      </c>
-      <c r="G2" s="1" t="n">
-        <v>85.161</v>
-      </c>
-      <c r="I2" s="1" t="n">
-        <v>55.879</v>
-      </c>
-      <c r="J2" s="1" t="n">
-        <v>51.871</v>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>720.43299999999999</v>
+      </c>
+      <c r="G2" s="1">
+        <v>85.161000000000001</v>
+      </c>
+      <c r="I2" s="1">
+        <v>55.878999999999998</v>
+      </c>
+      <c r="J2" s="1">
+        <v>51.871000000000002</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="P2" s="2" t="n">
-        <v>41305.5361111111</v>
+      <c r="P2" s="2">
+        <v>41305.536111111098</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>59</v>
@@ -1200,39 +1449,39 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="1">
         <v>101</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1" t="n">
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
         <v>467.25</v>
       </c>
-      <c r="H3" s="1" t="n">
+      <c r="H3" s="1">
         <v>650</v>
       </c>
-      <c r="I3" s="1" t="n">
-        <v>55.018</v>
-      </c>
-      <c r="J3" s="1" t="n">
+      <c r="I3" s="1">
+        <v>55.018000000000001</v>
+      </c>
+      <c r="J3" s="1">
         <v>14.987</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="P3" s="2" t="n">
-        <v>41305.5361111111</v>
+      <c r="P3" s="2">
+        <v>41305.536111111098</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>61</v>
@@ -1241,26 +1490,26 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="1">
         <v>102</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="0" t="n">
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>20</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4">
         <v>20</v>
       </c>
       <c r="I4" s="1"/>
@@ -1268,8 +1517,8 @@
       <c r="N4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="P4" s="2" t="n">
-        <v>41305.5361111111</v>
+      <c r="P4" s="2">
+        <v>41305.536111111098</v>
       </c>
       <c r="R4" s="1" t="s">
         <v>63</v>
@@ -1278,26 +1527,26 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="1">
         <v>102</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1" t="n">
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
         <v>50</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5">
         <v>50</v>
       </c>
       <c r="I5" s="1"/>
@@ -1305,8 +1554,8 @@
       <c r="N5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="P5" s="2" t="n">
-        <v>41305.5361111111</v>
+      <c r="P5" s="2">
+        <v>41305.536111111098</v>
       </c>
       <c r="R5" s="1" t="s">
         <v>63</v>
@@ -1315,36 +1564,36 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="1">
         <v>102</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I6" s="1" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="J6" s="1" t="n">
-        <v>2.2</v>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J6" s="1">
+        <v>2.2000000000000002</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="P6" s="2" t="n">
-        <v>41305.5361111111</v>
+      <c r="P6" s="2">
+        <v>41305.536111111098</v>
       </c>
       <c r="R6" s="1" t="s">
         <v>63</v>
@@ -1353,26 +1602,26 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="1">
         <v>102</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0" t="n">
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>13</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7">
         <v>13</v>
       </c>
       <c r="I7" s="1"/>
@@ -1380,8 +1629,8 @@
       <c r="N7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="P7" s="2" t="n">
-        <v>41305.5361111111</v>
+      <c r="P7" s="2">
+        <v>41305.536111111098</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>63</v>
@@ -1390,36 +1639,36 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="1">
         <v>104</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>265.083</v>
-      </c>
-      <c r="G8" s="1" t="n">
-        <v>7.817</v>
-      </c>
-      <c r="I8" s="1" t="n">
-        <v>35.109</v>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>265.08300000000003</v>
+      </c>
+      <c r="G8" s="1">
+        <v>7.8170000000000002</v>
+      </c>
+      <c r="I8" s="1">
+        <v>35.109000000000002</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="P8" s="2" t="n">
-        <v>41305.5361111111</v>
+      <c r="P8" s="2">
+        <v>41305.536111111098</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>68</v>
@@ -1428,33 +1677,33 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="0" t="n">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9">
         <v>194</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="0" t="n">
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <v>13</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9">
         <v>10</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="I9">
         <v>3</v>
       </c>
-      <c r="P9" s="2" t="n">
-        <v>41305.5361111111</v>
+      <c r="P9" s="2">
+        <v>41305.536111111098</v>
       </c>
       <c r="R9" s="1" t="s">
         <v>70</v>
@@ -1463,42 +1712,42 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="1">
         <v>369</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1" t="n">
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
         <v>60</v>
       </c>
-      <c r="G10" s="1" t="n">
+      <c r="G10" s="1">
         <v>10</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="H10">
         <v>20</v>
       </c>
-      <c r="I10" s="1" t="n">
+      <c r="I10" s="1">
         <v>30</v>
       </c>
-      <c r="J10" s="1" t="n">
+      <c r="J10" s="1">
         <v>20</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="P10" s="2" t="n">
-        <v>41305.5361111111</v>
+      <c r="P10" s="2">
+        <v>41305.536111111098</v>
       </c>
       <c r="R10" s="1" t="s">
         <v>59</v>
@@ -1508,30 +1757,22 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.65234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1587,24 +1828,24 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="1">
         <v>100</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3" t="n">
-        <v>8.089</v>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>8.0890000000000004</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -1618,34 +1859,34 @@
       <c r="N2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="O2" s="2" t="n">
-        <v>40434.5298611111</v>
-      </c>
-      <c r="P2" s="2" t="n">
-        <v>40696.6756944444</v>
+      <c r="O2" s="2">
+        <v>40434.529861111099</v>
+      </c>
+      <c r="P2" s="2">
+        <v>40696.675694444399</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="1">
         <v>100</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3" t="n">
-        <v>97.403</v>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>97.403000000000006</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -1656,30 +1897,30 @@
       <c r="M3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O3" s="2" t="n">
-        <v>40434.5298611111</v>
+      <c r="O3" s="2">
+        <v>40434.529861111099</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="1">
         <v>100</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3" t="n">
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
         <v>88.26</v>
       </c>
       <c r="G4" s="4"/>
@@ -1694,39 +1935,39 @@
       <c r="N4" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="O4" s="2" t="n">
-        <v>40434.5298611111</v>
-      </c>
-      <c r="P4" s="2" t="n">
-        <v>40696.6756944444</v>
+      <c r="O4" s="2">
+        <v>40434.529861111099</v>
+      </c>
+      <c r="P4" s="2">
+        <v>40696.675694444399</v>
       </c>
       <c r="R4" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="1">
         <v>101</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3" t="n">
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
         <v>3.794</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="3" t="n">
-        <v>7.879</v>
+      <c r="I5" s="3">
+        <v>7.8789999999999996</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
@@ -1734,8 +1975,8 @@
       <c r="M5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O5" s="2" t="n">
-        <v>40434.5298611111</v>
+      <c r="O5" s="2">
+        <v>40434.529861111099</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>85</v>
@@ -1744,29 +1985,29 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="1">
         <v>101</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3" t="n">
-        <v>39.076</v>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>39.076000000000001</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="3" t="n">
-        <v>2.807</v>
+      <c r="I6" s="3">
+        <v>2.8069999999999999</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -1774,8 +2015,8 @@
       <c r="M6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O6" s="2" t="n">
-        <v>40434.5298611111</v>
+      <c r="O6" s="2">
+        <v>40434.529861111099</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>86</v>
@@ -1784,29 +2025,29 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="1">
         <v>101</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3" t="n">
-        <v>89.492</v>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>89.492000000000004</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="3" t="n">
-        <v>1.705</v>
+      <c r="I7" s="3">
+        <v>1.7050000000000001</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
@@ -1814,8 +2055,8 @@
       <c r="M7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O7" s="2" t="n">
-        <v>40434.5298611111</v>
+      <c r="O7" s="2">
+        <v>40434.529861111099</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>88</v>
@@ -1824,24 +2065,24 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="1">
         <v>102</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3" t="n">
-        <v>98.763</v>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>98.763000000000005</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -1852,30 +2093,30 @@
       <c r="M8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O8" s="2" t="n">
-        <v>40434.5298611111</v>
+      <c r="O8" s="2">
+        <v>40434.529861111099</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="1">
         <v>102</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3" t="n">
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
         <v>3.903</v>
       </c>
       <c r="G9" s="4"/>
@@ -1887,31 +2128,31 @@
       <c r="M9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O9" s="2" t="n">
-        <v>40434.5298611111</v>
+      <c r="O9" s="2">
+        <v>40434.529861111099</v>
       </c>
       <c r="R9" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="1">
         <v>102</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3" t="n">
-        <v>5.347</v>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>5.3470000000000004</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -1922,31 +2163,31 @@
       <c r="M10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O10" s="2" t="n">
-        <v>40434.5298611111</v>
+      <c r="O10" s="2">
+        <v>40434.529861111099</v>
       </c>
       <c r="R10" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C11" s="1">
         <v>103</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3" t="n">
-        <v>17.611</v>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>17.611000000000001</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -1960,34 +2201,34 @@
       <c r="N11" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="O11" s="2" t="n">
-        <v>40434.5298611111</v>
-      </c>
-      <c r="P11" s="2" t="n">
-        <v>40696.6756944444</v>
+      <c r="O11" s="2">
+        <v>40434.529861111099</v>
+      </c>
+      <c r="P11" s="2">
+        <v>40696.675694444399</v>
       </c>
       <c r="R11" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C12" s="1">
         <v>104</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3" t="n">
-        <v>22.345</v>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>22.344999999999999</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -1998,31 +2239,31 @@
       <c r="M12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O12" s="2" t="n">
-        <v>40434.5298611111</v>
+      <c r="O12" s="2">
+        <v>40434.529861111099</v>
       </c>
       <c r="R12" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="1" t="n">
+      <c r="C13" s="1">
         <v>104</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3" t="n">
-        <v>7.481</v>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <v>7.4809999999999999</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -2033,30 +2274,30 @@
       <c r="M13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O13" s="2" t="n">
-        <v>40434.5298611111</v>
+      <c r="O13" s="2">
+        <v>40434.529861111099</v>
       </c>
       <c r="R13" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="1" t="n">
+      <c r="C14" s="1">
         <v>104</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="n">
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>23.58</v>
       </c>
       <c r="G14" s="4"/>
@@ -2068,37 +2309,37 @@
       <c r="M14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O14" s="2" t="n">
-        <v>40434.5298611111</v>
+      <c r="O14" s="2">
+        <v>40434.529861111099</v>
       </c>
       <c r="R14" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="1" t="n">
+      <c r="C15" s="1">
         <v>194</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3" t="n">
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
         <v>66</v>
       </c>
-      <c r="G15" s="4" t="n">
+      <c r="G15" s="4">
         <v>50</v>
       </c>
       <c r="H15" s="4"/>
-      <c r="I15" s="4" t="n">
+      <c r="I15" s="4">
         <v>16</v>
       </c>
       <c r="J15" s="4"/>
@@ -2107,52 +2348,52 @@
       <c r="M15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O15" s="2" t="n">
-        <v>40434.5298611111</v>
+      <c r="O15" s="2">
+        <v>40434.529861111099</v>
       </c>
       <c r="R15" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="1" t="n">
+      <c r="C16" s="1">
         <v>369</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="3" t="n">
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
         <v>150</v>
       </c>
-      <c r="G16" s="4" t="n">
+      <c r="G16" s="4">
         <v>10</v>
       </c>
-      <c r="H16" s="4" t="n">
+      <c r="H16" s="4">
         <v>20</v>
       </c>
-      <c r="I16" s="4" t="n">
+      <c r="I16" s="4">
         <v>30</v>
       </c>
-      <c r="J16" s="4" t="n">
+      <c r="J16" s="4">
         <v>40</v>
       </c>
-      <c r="K16" s="4" t="n">
+      <c r="K16" s="4">
         <v>50</v>
       </c>
       <c r="L16" s="4"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
-      <c r="O16" s="2" t="n">
-        <v>40434.5298611111</v>
+      <c r="O16" s="2">
+        <v>40434.529861111099</v>
       </c>
       <c r="P16" s="2"/>
       <c r="R16" s="1" t="s">
@@ -2160,30 +2401,22 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:R1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
+    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.65234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2239,23 +2472,23 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="1">
         <v>100</v>
       </c>
-      <c r="D2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="n">
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
         <v>52.073</v>
       </c>
-      <c r="I2" s="1" t="n">
+      <c r="I2" s="1">
         <v>52.073</v>
       </c>
       <c r="L2" s="1" t="s">
@@ -2264,75 +2497,75 @@
       <c r="M2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="2" t="n">
-        <v>40434.5298611111</v>
-      </c>
-      <c r="O2" s="2" t="n">
+      <c r="N2" s="2">
+        <v>40434.529861111099</v>
+      </c>
+      <c r="O2" s="2">
         <v>40653.3840277778</v>
       </c>
-      <c r="P2" s="0" t="s">
+      <c r="P2" t="s">
         <v>107</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="1">
         <v>104</v>
       </c>
-      <c r="D3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>92.945</v>
-      </c>
-      <c r="G3" s="0" t="n">
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>92.944999999999993</v>
+      </c>
+      <c r="G3">
         <v>3</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3">
         <v>3</v>
       </c>
-      <c r="I3" s="1" t="n">
-        <v>89.945</v>
+      <c r="I3" s="1">
+        <v>89.944999999999993</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="2" t="n">
-        <v>40434.5298611111</v>
-      </c>
-      <c r="P3" s="0" t="s">
+      <c r="N3" s="2">
+        <v>40434.529861111099</v>
+      </c>
+      <c r="P3" t="s">
         <v>109</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="1">
         <v>106</v>
       </c>
-      <c r="D4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1" t="n">
-        <v>1.132</v>
-      </c>
-      <c r="F4" s="1" t="n">
-        <v>1.132</v>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1.1319999999999999</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1.1319999999999999</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>33</v>
@@ -2340,39 +2573,39 @@
       <c r="M4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N4" s="2" t="n">
-        <v>40434.5298611111</v>
-      </c>
-      <c r="O4" s="2" t="n">
+      <c r="N4" s="2">
+        <v>40434.529861111099</v>
+      </c>
+      <c r="O4" s="2">
         <v>40653.3840277778</v>
       </c>
-      <c r="P4" s="0" t="s">
+      <c r="P4" t="s">
         <v>111</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="1">
         <v>194</v>
       </c>
-      <c r="D5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="F5" s="1" t="n">
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>33</v>
+      </c>
+      <c r="F5" s="1">
         <v>15</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5">
         <v>18</v>
       </c>
       <c r="L5" s="1" t="s">
@@ -2381,45 +2614,36 @@
       <c r="M5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="2" t="n">
-        <v>40434.5298611111</v>
-      </c>
-      <c r="O5" s="2" t="n">
+      <c r="N5" s="2">
+        <v>40434.529861111099</v>
+      </c>
+      <c r="O5" s="2">
         <v>40653.3840277778</v>
       </c>
-      <c r="P5" s="0" t="s">
+      <c r="P5" t="s">
         <v>113</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.65234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2454,20 +2678,20 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="1">
         <v>100</v>
       </c>
-      <c r="D2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="n">
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
         <v>19.634</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -2476,10 +2700,10 @@
       <c r="G2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="2" t="n">
-        <v>40434.5298611111</v>
-      </c>
-      <c r="I2" s="2" t="n">
+      <c r="H2" s="2">
+        <v>40434.529861111099</v>
+      </c>
+      <c r="I2" s="2">
         <v>40653.3840277778</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -2489,73 +2713,73 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="1">
         <v>102</v>
       </c>
-      <c r="D3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>28.925</v>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>28.925000000000001</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="2" t="n">
-        <v>40434.5298611111</v>
+      <c r="H3" s="2">
+        <v>40434.529861111099</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="1">
         <v>103</v>
       </c>
-      <c r="D4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1" t="n">
-        <v>34.151</v>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>34.151000000000003</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="2" t="n">
-        <v>40434.5298611111</v>
+      <c r="H4" s="2">
+        <v>40434.529861111099</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="1">
         <v>104</v>
       </c>
-      <c r="D5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1" t="n">
-        <v>86.275</v>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>86.275000000000006</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>33</v>
@@ -2563,31 +2787,31 @@
       <c r="G5" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="H5" s="2" t="n">
-        <v>40434.5298611111</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>40592.7298611111</v>
+      <c r="H5" s="2">
+        <v>40434.529861111099</v>
+      </c>
+      <c r="I5" s="2">
+        <v>40592.729861111096</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="1">
         <v>105</v>
       </c>
-      <c r="D6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1" t="n">
-        <v>18.225</v>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>18.225000000000001</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>33</v>
@@ -2595,10 +2819,10 @@
       <c r="G6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="2" t="n">
-        <v>40434.5298611111</v>
-      </c>
-      <c r="I6" s="2" t="n">
+      <c r="H6" s="2">
+        <v>40434.529861111099</v>
+      </c>
+      <c r="I6" s="2">
         <v>40653.3840277778</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -2608,26 +2832,26 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="1">
         <v>369</v>
       </c>
-      <c r="D7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1" t="n">
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
         <v>10</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="2" t="n">
-        <v>40434.5298611111</v>
+      <c r="H7" s="2">
+        <v>40434.529861111099</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="1"/>
@@ -2636,30 +2860,22 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:M1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.65234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2700,17 +2916,17 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="1">
         <v>101</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="4"/>
@@ -2721,11 +2937,11 @@
       <c r="I2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="2" t="n">
-        <v>40434.5298611111</v>
-      </c>
-      <c r="K2" s="2" t="n">
-        <v>40708.3666666667</v>
+      <c r="J2" s="2">
+        <v>40434.529861111099</v>
+      </c>
+      <c r="K2" s="2">
+        <v>40708.366666666698</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>85</v>
@@ -2734,24 +2950,24 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="1">
         <v>104</v>
       </c>
-      <c r="D3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3" t="n">
-        <v>97.508</v>
-      </c>
-      <c r="G3" s="3" t="n">
-        <v>61.636</v>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>97.507999999999996</v>
+      </c>
+      <c r="G3" s="3">
+        <v>61.636000000000003</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>33</v>
@@ -2759,11 +2975,11 @@
       <c r="I3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="2" t="n">
-        <v>40434.5298611111</v>
-      </c>
-      <c r="K3" s="2" t="n">
-        <v>40708.3673611111</v>
+      <c r="J3" s="2">
+        <v>40434.529861111099</v>
+      </c>
+      <c r="K3" s="2">
+        <v>40708.367361111101</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>86</v>
@@ -2772,17 +2988,17 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="1">
         <v>105</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4" s="1">
         <v>0</v>
       </c>
       <c r="F4" s="4"/>
@@ -2793,11 +3009,11 @@
       <c r="I4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="2" t="n">
-        <v>40434.5298611111</v>
-      </c>
-      <c r="K4" s="2" t="n">
-        <v>40708.3666666667</v>
+      <c r="J4" s="2">
+        <v>40434.529861111099</v>
+      </c>
+      <c r="K4" s="2">
+        <v>40708.366666666698</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>88</v>
@@ -2806,32 +3022,23 @@
         <v>129</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:O1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.65234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2878,17 +3085,17 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="1">
         <v>101</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" s="1">
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -2900,11 +3107,11 @@
       <c r="K2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="2" t="n">
-        <v>40434.5298611111</v>
-      </c>
-      <c r="M2" s="2" t="n">
-        <v>40696.6756944444</v>
+      <c r="L2" s="2">
+        <v>40434.529861111099</v>
+      </c>
+      <c r="M2" s="2">
+        <v>40696.675694444399</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>85</v>
@@ -2913,26 +3120,26 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="1">
         <v>104</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="1">
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="1" t="n">
-        <v>70.508</v>
-      </c>
-      <c r="H3" s="1" t="n">
+      <c r="F3" s="1">
+        <v>70.507999999999996</v>
+      </c>
+      <c r="H3" s="1">
         <v>19.634</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -2941,11 +3148,11 @@
       <c r="K3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="2" t="n">
-        <v>40434.5298611111</v>
-      </c>
-      <c r="M3" s="2" t="n">
-        <v>40696.6756944444</v>
+      <c r="L3" s="2">
+        <v>40434.529861111099</v>
+      </c>
+      <c r="M3" s="2">
+        <v>40696.675694444399</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>86</v>
@@ -2954,36 +3161,36 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="1">
         <v>104</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4" s="1">
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4">
         <v>7</v>
       </c>
-      <c r="H4" s="1" t="n">
+      <c r="H4" s="1">
         <v>2.581</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4">
         <v>10</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="2" t="n">
-        <v>40592.7298611111</v>
+      <c r="L4" s="2">
+        <v>40592.729861111096</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>88</v>
@@ -2992,33 +3199,33 @@
         <v>136</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="1">
         <v>104</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" s="1">
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5">
         <v>20</v>
       </c>
-      <c r="I5" s="1" t="n">
-        <v>29.421</v>
+      <c r="I5" s="1">
+        <v>29.420999999999999</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L5" s="2" t="n">
-        <v>40592.7298611111</v>
+      <c r="L5" s="2">
+        <v>40592.729861111096</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>137</v>
@@ -3027,17 +3234,17 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="1">
         <v>105</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D6" s="1">
         <v>0</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -3049,11 +3256,11 @@
       <c r="K6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L6" s="2" t="n">
-        <v>40434.5298611111</v>
-      </c>
-      <c r="M6" s="2" t="n">
-        <v>40696.6756944444</v>
+      <c r="L6" s="2">
+        <v>40434.529861111099</v>
+      </c>
+      <c r="M6" s="2">
+        <v>40696.675694444399</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>139</v>
@@ -3062,15 +3269,8 @@
         <v>140</v>
       </c>
     </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>